--- a/yasusan2/加工済みファイル/20241005_新潟_加工済み.xlsx
+++ b/yasusan2/加工済みファイル/20241005_新潟_加工済み.xlsx
@@ -1,23 +1,23 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" tabRatio="600" firstSheet="0" activeTab="11" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="結果_1" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="結果_2" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="結果_3" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="結果_4" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="結果_5" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="結果_6" sheetId="6" state="visible" r:id="rId6"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="結果_7" sheetId="7" state="visible" r:id="rId7"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="結果_8" sheetId="8" state="visible" r:id="rId8"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="結果_9" sheetId="9" state="visible" r:id="rId9"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="結果_10" sheetId="10" state="visible" r:id="rId10"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="結果_11" sheetId="11" state="visible" r:id="rId11"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="結果_12" sheetId="12" state="visible" r:id="rId12"/>
+    <sheet name="結果_1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="結果_2" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet name="結果_3" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet name="結果_4" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet name="結果_5" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet name="結果_6" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet name="結果_7" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet name="結果_8" sheetId="8" state="visible" r:id="rId8"/>
+    <sheet name="結果_9" sheetId="9" state="visible" r:id="rId9"/>
+    <sheet name="結果_10" sheetId="10" state="visible" r:id="rId10"/>
+    <sheet name="結果_11" sheetId="11" state="visible" r:id="rId11"/>
+    <sheet name="結果_12" sheetId="12" state="visible" r:id="rId12"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'結果_1'!$A$2:$R$5</definedName>
